--- a/ApolloQA/Data/RatingManual/GA/VA00058.IsPreferredTruckingFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00058.IsPreferredTruckingFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00058.IsPreferredTruckingFactors" sheetId="1" r:id="Re949b944fc984233"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00058.IsPreferredTruckingFactors" sheetId="1" r:id="Rc0cb8d7e02fe4ac9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,21 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Preferred Trucking</x:v>
+        <x:v>Radius Lower Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Preferred Trucking Factor</x:v>
+        <x:v>Radius Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Radius Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>No</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>100</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -28,10 +34,35 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Yes</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8500</x:v>
+        <x:v>300</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0300</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
